--- a/Test/Lawnmower/T2/Sensors_data_1000025.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000025.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9857721143081453</v>
+        <v>0.976675253064838</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0006714244459043039</v>
+        <v>0.0008674398126726031</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07747378359190071</v>
+        <v>0.3640735811523561</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7954365842732225</v>
+        <v>0.9598129573663163</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006556318224213044</v>
+        <v>0.001958890939592799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1094239883765</v>
+        <v>0.3067528004573002</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8504585844850208</v>
+        <v>0.9936101109773351</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00556139699271763</v>
+        <v>0.0004684221154932711</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3648128526015669</v>
+        <v>0.04233471278383838</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9666501577700395</v>
+        <v>0.5711099475652531</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001625616106579642</v>
+        <v>0.03815663373955016</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3005523077815601</v>
+        <v>0.4961692879234478</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
